--- a/medicine/Psychotrope/John_Kinder_Labatt/John_Kinder_Labatt.xlsx
+++ b/medicine/Psychotrope/John_Kinder_Labatt/John_Kinder_Labatt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Kinder Labatt (comté de Laois, Irlande, 1803 – London (Ontario), Canada-Ouest, 26 octobre 1866) est un homme d'affaires et brasseur canadien d'origine irlandaise. Il est le fondateur de la brasserie Labatt.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en Irlande dans le comté de Laois d'un famille de huguenots français devenus anglicans[1], Labatt immigre au Haut-Canada en 1833 où il s'établit d'abord comme fermier près de l'actuelle ville de London, dans le Haut-Canada. En 1847 il investit dans une brasserie avec son partenaire, Samuel Eccles, créant l'entreprise « Labatt and Eccles ». Lorsque Eccles prend sa retraite en 1854, Labatt acquiert ses intérêts dans l'entreprise et la renomme la « London Brewery ». Il est assisté par ses fils, Ephraim, Robert et John. À sa mort, ce dernier rachète la brasserie, qui devient l'une des plus importantes au Canada.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en Irlande dans le comté de Laois d'un famille de huguenots français devenus anglicans, Labatt immigre au Haut-Canada en 1833 où il s'établit d'abord comme fermier près de l'actuelle ville de London, dans le Haut-Canada. En 1847 il investit dans une brasserie avec son partenaire, Samuel Eccles, créant l'entreprise « Labatt and Eccles ». Lorsque Eccles prend sa retraite en 1854, Labatt acquiert ses intérêts dans l'entreprise et la renomme la « London Brewery ». Il est assisté par ses fils, Ephraim, Robert et John. À sa mort, ce dernier rachète la brasserie, qui devient l'une des plus importantes au Canada.
 </t>
         </is>
       </c>
